--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -3941,7 +3941,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>323.5713788301491</v>
+        <v>323.5713788301492</v>
       </c>
       <c r="C211">
         <v>420.9951947294944</v>
@@ -4723,7 +4723,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>73.95818488987453</v>
+        <v>73.95818488987452</v>
       </c>
       <c r="C257">
         <v>74.6901976244644</v>
